--- a/results/Homeopathy_excluded/mod3.lreconBYhealth.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod3.lreconBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0360310141456432</v>
+        <v>-0.0360310875551181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0217846325104931</v>
+        <v>0.0217845938679655</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0787281092826501</v>
+        <v>-0.0787281069541626</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00666608099136361</v>
+        <v>0.00666593184392639</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.65396474456422</v>
+        <v>-1.6539710482325</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0981346762119189</v>
+        <v>0.0981333953471182</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00249564375708668</v>
+        <v>0.00249578852518355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.016328126116551</v>
+        <v>0.0163281166995353</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0295068953663812</v>
+        <v>-0.0295067321412726</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0344981828805546</v>
+        <v>0.0344983091916397</v>
       </c>
       <c r="G3" t="n">
-        <v>0.152843243570795</v>
+        <v>0.152852197905628</v>
       </c>
       <c r="H3" t="n">
-        <v>0.87852189491772</v>
+        <v>0.878514833363383</v>
       </c>
     </row>
   </sheetData>
